--- a/html/resources/aoiConditions/train2P1Block13Test.xlsx
+++ b/html/resources/aoiConditions/train2P1Block13Test.xlsx
@@ -34,16 +34,16 @@
     <t>falsePos</t>
   </si>
   <si>
-    <t>trainingaudio/16_kokapi2.wav</t>
-  </si>
-  <si>
-    <t>pngimages/16_icecream.png</t>
-  </si>
-  <si>
-    <t>trainingaudio/03_kikita3.wav</t>
-  </si>
-  <si>
-    <t>pngimages/03_box.png</t>
+    <t>trainingaudio/20_tatito1.wav</t>
+  </si>
+  <si>
+    <t>pngimages/20_pizza.png</t>
+  </si>
+  <si>
+    <t>trainingaudio/05_titopo2.wav</t>
+  </si>
+  <si>
+    <t>pngimages/05_megaphone.png</t>
   </si>
 </sst>
 </file>

--- a/html/resources/aoiConditions/train2P1Block13Test.xlsx
+++ b/html/resources/aoiConditions/train2P1Block13Test.xlsx
@@ -22,7 +22,7 @@
     <t>imageTrue</t>
   </si>
   <si>
-    <t>audioFalse</t>
+    <t>currentPhase</t>
   </si>
   <si>
     <t>imageFalse</t>
@@ -40,7 +40,7 @@
     <t>pngimages/20_pizza.png</t>
   </si>
   <si>
-    <t>trainingaudio/05_titopo2.wav</t>
+    <t>train2P1</t>
   </si>
   <si>
     <t>pngimages/05_megaphone.png</t>
